--- a/Лаба 2/Результаты/Полученные результаты/Обобщённый Вейбула/Сложная гипотеза/Файлы таблиц с данными/Крамера-Мизиса-Смирнова_result.xlsx
+++ b/Лаба 2/Результаты/Полученные результаты/Обобщённый Вейбула/Сложная гипотеза/Файлы таблиц с данными/Крамера-Мизиса-Смирнова_result.xlsx
@@ -519,7 +519,7 @@
         <v>500</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0221</v>
+        <v>0.0222</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>

--- a/Лаба 2/Результаты/Полученные результаты/Обобщённый Вейбула/Сложная гипотеза/Файлы таблиц с данными/Крамера-Мизиса-Смирнова_result.xlsx
+++ b/Лаба 2/Результаты/Полученные результаты/Обобщённый Вейбула/Сложная гипотеза/Файлы таблиц с данными/Крамера-Мизиса-Смирнова_result.xlsx
@@ -463,7 +463,7 @@
         <v>500</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0282</v>
+        <v>0.2662</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>500</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0625</v>
+        <v>0.3464</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>500</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0376</v>
+        <v>0.1078</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,7 +505,7 @@
         <v>500</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0206</v>
+        <v>0.0186</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>500</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0222</v>
+        <v>0.0196</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>500</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1384</v>
+        <v>0.0417</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
